--- a/附件20.xlsx
+++ b/附件20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="108" windowWidth="19398" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="WGCNA" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Module ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>Hamming loss</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1135,17 +1139,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="10.734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.89453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="14.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="13.8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>
@@ -1159,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.13400000000000001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1170,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="2">
         <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1181,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C4" s="2">
         <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1192,10 +1196,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C5" s="2">
         <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1203,10 +1207,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C6" s="2">
         <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1214,10 +1218,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C7" s="2">
         <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1225,10 +1229,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C8" s="2">
         <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1236,10 +1240,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C9" s="2">
         <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1247,10 +1251,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C10" s="2">
         <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.76</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1258,10 +1262,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="C11" s="2">
         <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1269,10 +1273,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C12" s="2">
         <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1280,10 +1284,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C13" s="2">
         <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1291,10 +1295,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C14" s="2">
         <v>0.1144</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1302,10 +1306,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C15" s="2">
         <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.74</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1313,10 +1317,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.11119999999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1324,10 +1328,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="C17" s="2">
         <v>9.0800000000000006E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.748</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1335,16 +1339,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="C18" s="2">
         <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.76400000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1354,14 +1358,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="10.3671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="14.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,10 +1381,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.10440000000000001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1388,10 +1392,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.1072</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1399,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C4" s="2">
         <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1410,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.13239999999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1421,10 +1425,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="C6" s="2">
         <v>9.4399999999999998E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1432,10 +1436,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.1168</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1443,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.1072</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1454,10 +1458,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.13159999999999999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1465,10 +1469,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.1148</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1476,10 +1480,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C11" s="2">
         <v>0.1328</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1487,10 +1491,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.13639999999999999</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1498,10 +1502,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.1396</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1509,10 +1513,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C14" s="2">
         <v>0.1172</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1520,10 +1524,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.12920000000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1531,10 +1535,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.1144</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1542,10 +1546,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.1144</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1553,10 +1557,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="C18" s="2">
         <v>0.1244</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1564,10 +1568,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.11119999999999999</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1575,10 +1579,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C20" s="2">
         <v>0.12959999999999999</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1586,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.12720000000000001</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1597,10 +1601,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.112</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1608,10 +1612,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C23" s="2">
         <v>0.1192</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1619,10 +1623,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C24" s="2">
         <v>0.1048</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1630,10 +1634,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.09</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.752</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1641,10 +1645,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C26" s="2">
         <v>0.11</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1652,10 +1656,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C27" s="2">
         <v>0.11360000000000001</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1663,10 +1667,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C28" s="2">
         <v>0.10879999999999999</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1674,10 +1678,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C29" s="2">
         <v>0.104</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1685,10 +1689,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.1032</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1696,10 +1700,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C31" s="2">
         <v>0.12559999999999999</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1707,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C32" s="2">
         <v>0.1244</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1718,10 +1722,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C33" s="2">
         <v>9.5600000000000004E-2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1729,10 +1733,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C34" s="2">
         <v>0.122</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1740,10 +1744,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="C35" s="2">
         <v>0.10440000000000001</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1751,10 +1755,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C36" s="2">
         <v>0.11840000000000001</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1762,10 +1766,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C37" s="2">
         <v>0.12520000000000001</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1773,10 +1777,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C38" s="2">
         <v>7.6399999999999996E-2</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1784,10 +1788,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C39" s="2">
         <v>0.1172</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1795,10 +1799,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C40" s="2">
         <v>0.12039999999999999</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.67</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1806,10 +1810,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="C41" s="2">
         <v>0.1128</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1817,10 +1821,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="C42" s="2">
         <v>0.12</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1828,10 +1832,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="C43" s="2">
         <v>0.1116</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1839,10 +1843,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C44" s="2">
         <v>0.10920000000000001</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1850,10 +1854,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C45" s="2">
         <v>0.112</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1861,10 +1865,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="C46" s="2">
         <v>0.1116</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1872,10 +1876,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="C47" s="2">
         <v>9.9599999999999994E-2</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1883,10 +1887,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="C48" s="2">
         <v>0.12839999999999999</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.65</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1894,10 +1898,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C49" s="2">
         <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1905,10 +1909,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C50" s="2">
         <v>0.12</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1916,10 +1920,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C51" s="2">
         <v>0.1048</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1927,10 +1931,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C52" s="2">
         <v>8.7599999999999997E-2</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.75800000000000001</v>
       </c>
     </row>
   </sheetData>
